--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T14:48:49+00:00</t>
+    <t>2022-10-27T15:00:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T15:00:12+00:00</t>
+    <t>2022-10-27T15:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T15:06:33+00:00</t>
+    <t>2022-10-27T15:52:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T15:52:13+00:00</t>
+    <t>2022-10-27T16:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T16:12:15+00:00</t>
+    <t>2022-10-27T18:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T18:35:25+00:00</t>
+    <t>2022-10-27T18:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T18:36:49+00:00</t>
+    <t>2022-10-27T18:49:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T18:49:37+00:00</t>
+    <t>2022-10-27T19:07:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T19:07:24+00:00</t>
+    <t>2022-10-27T19:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>xxxYour Work Group</t>
+    <t>Masterthesis</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T19:42:49+00:00</t>
+    <t>2022-10-27T19:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T19:48:51+00:00</t>
+    <t>2022-10-27T20:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T20:00:04+00:00</t>
+    <t>2022-10-27T20:07:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T20:07:25+00:00</t>
+    <t>2022-10-27T20:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Masterthesis</t>
+    <t>Masterthesis University Leipzig</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T20:24:15+00:00</t>
+    <t>2022-10-27T20:31:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T20:31:30+00:00</t>
+    <t>2022-10-27T20:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T20:43:04+00:00</t>
+    <t>2022-10-27T20:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T20:44:19+00:00</t>
+    <t>2022-10-27T20:52:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T20:52:17+00:00</t>
+    <t>2022-10-27T21:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:05:55+00:00</t>
+    <t>2022-10-27T21:07:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:07:47+00:00</t>
+    <t>2022-10-27T21:14:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:14:50+00:00</t>
+    <t>2022-10-27T21:25:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:25:50+00:00</t>
+    <t>2022-10-27T21:41:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:41:13+00:00</t>
+    <t>2022-10-27T22:06:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T22:06:20+00:00</t>
+    <t>2022-10-27T22:10:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Family Member</t>
+    <t>Familienmitglied</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T22:10:40+00:00</t>
+    <t>2022-10-27T22:16:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A reference to a family member (not necessarily biologically related).</t>
+    <t>Ein Verweis auf ein Familienmitglied (nicht unbedingt biologisch verwandt).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -259,10 +259,7 @@
 </t>
   </si>
   <si>
-    <t>Family member</t>
-  </si>
-  <si>
-    <t>A reference to the human family member</t>
+    <t>Ein Verweis auf das menschliche Familienmitglied</t>
   </si>
   <si>
     <t>family-member.biological</t>
@@ -272,10 +269,10 @@
 </t>
   </si>
   <si>
-    <t>Biologically related?</t>
-  </si>
-  <si>
-    <t>A family member may not be biologically related due to adoption, blended families, etc.</t>
+    <t>Biologisch verwandt?</t>
+  </si>
+  <si>
+    <t>Ein Familienmitglied darf aufgrund von Adoption, Patchworkfamilien usw. nicht biologisch verwandt sein.</t>
   </si>
 </sst>
 </file>
@@ -599,7 +596,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.5546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="20.55078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -865,10 +862,10 @@
         <v>80</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -939,7 +936,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -962,13 +959,13 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1019,7 +1016,7 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>74</v>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T22:16:40+00:00</t>
+    <t>2022-10-27T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T22:34:02+00:00</t>
+    <t>2022-11-02T08:45:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T08:45:38+00:00</t>
+    <t>2022-11-02T08:59:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T08:59:34+00:00</t>
+    <t>2022-11-02T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T09:54:31+00:00</t>
+    <t>2022-11-03T09:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-family-member.xlsx
+++ b/branches/master/StructureDefinition-family-member.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T09:00:01+00:00</t>
+    <t>2022-11-03T09:26:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
